--- a/Design Mapping.xlsx
+++ b/Design Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ketan Mali\OneDrive - Apnasite IT Services Private Limited\Desktop\ICard\icard-assignments\I card\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Code\00 Training Project Assignments\social-post-assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6E5DEC-BFE7-460C-9F39-A590B665AD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB33B76-8909-4CFA-B137-AB7D3D423C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Sr No</t>
   </si>
@@ -238,13 +238,91 @@
   </si>
   <si>
     <t>Design No. 34</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Trupti</t>
+  </si>
+  <si>
+    <t>Dhongde</t>
+  </si>
+  <si>
+    <t>dhongadetrupti2@gmail.com</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>Kandra</t>
+  </si>
+  <si>
+    <t>sheetalkandara785@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjeevani</t>
+  </si>
+  <si>
+    <t>Balure</t>
+  </si>
+  <si>
+    <t>baluresanjeevanee22@gmail.com</t>
+  </si>
+  <si>
+    <t>Mayuri</t>
+  </si>
+  <si>
+    <t>Ragho</t>
+  </si>
+  <si>
+    <t>raghumayuri2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>Kadam</t>
+  </si>
+  <si>
+    <t>kadamhemant642@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishori</t>
+  </si>
+  <si>
+    <t>Mestry</t>
+  </si>
+  <si>
+    <t>kishorimestry1996@gmail.com</t>
+  </si>
+  <si>
+    <t>Design No. 35</t>
+  </si>
+  <si>
+    <t>Design No. 36</t>
+  </si>
+  <si>
+    <t>Design No. 39</t>
+  </si>
+  <si>
+    <t>Design No. 40</t>
+  </si>
+  <si>
+    <t>Design No. 41</t>
+  </si>
+  <si>
+    <t>Design No. 42</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,16 +362,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -316,11 +420,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,8 +456,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,406 +740,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="C4" s="2" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C5" s="3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C8" s="3">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="3">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C10" s="3">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C11" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C12" s="3">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C13" s="3">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C15" s="3">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="3">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="3">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18" s="3">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="3">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="3">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="3">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C22" s="3">
-        <v>18</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C23" s="3">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C24" s="3">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25" s="3">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C26" s="3">
-        <v>22</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="3">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="3">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C29" s="3">
-        <v>25</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C30" s="3">
-        <v>26</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C31" s="3">
-        <v>27</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="3">
-        <v>28</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="3">
-        <v>29</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="3">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" s="3">
-        <v>31</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" s="3">
-        <v>32</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37" s="3">
-        <v>33</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="3">
-        <v>34</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>70</v>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{383FCD04-A107-450C-BA39-4DF3013BBD9F}"/>
+    <hyperlink ref="D37" r:id="rId2" xr:uid="{B2553D1E-4468-4DC8-A4FE-B39A84F6B69D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>